--- a/japan/growth_accounting.xlsx
+++ b/japan/growth_accounting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wuvis\code\papers\japan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514769D5-B433-48D5-94CD-3140A8F987A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAC2A0A-AD1D-4520-93B8-2BDFF7C0DBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21120" xr2:uid="{2C59AE62-D58B-4EC4-8B88-FBA441D3B72B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{2C59AE62-D58B-4EC4-8B88-FBA441D3B72B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Year</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Captial's share of Y</t>
   </si>
   <si>
-    <t>Estimated TPF(A)</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -62,13 +59,7 @@
     <t>L</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>Calculate Growth Rates</t>
-  </si>
-  <si>
-    <t>GAGR</t>
   </si>
   <si>
     <t>Number of Employment</t>
@@ -78,6 +69,21 @@
   </si>
   <si>
     <t xml:space="preserve">Average annual hours per worker </t>
+  </si>
+  <si>
+    <t>A α=0.2</t>
+  </si>
+  <si>
+    <t>A α=0.4</t>
+  </si>
+  <si>
+    <t>TFP(A) : α =0.4</t>
+  </si>
+  <si>
+    <t>TFP(A) : α =0.2</t>
+  </si>
+  <si>
+    <t>CAGR</t>
   </si>
 </sst>
 </file>
@@ -147,7 +153,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -159,16 +165,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔[0] 2" xfId="3" xr:uid="{6A093B70-192E-4DA1-8996-FCE911BAC553}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{553C0BAE-A02E-4209-8122-CED53C908214}"/>
     <cellStyle name="常规 3" xfId="4" xr:uid="{E8CD68BE-E496-4EE3-943A-7E1C0F80C324}"/>
     <cellStyle name="百分比 2" xfId="2" xr:uid="{C9345526-569C-404E-AFEC-5A380DBCE176}"/>
@@ -187,7 +192,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -483,24 +488,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8F50F9-70B3-430C-B5E0-B9FACDCA93E5}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.1328125" customWidth="1"/>
+    <col min="6" max="6" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.73046875" hidden="1" customWidth="1"/>
+    <col min="11" max="13" width="6.86328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="7.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -511,28 +518,32 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
       <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="K1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1997</v>
       </c>
@@ -552,28 +563,35 @@
         <f>D2*E2</f>
         <v>12670810</v>
       </c>
-      <c r="G2" s="8">
-        <f>B2/C2^H2/(F2)^(1-H2)</f>
+      <c r="G2" s="6">
+        <f>B2/C2^I2/(F2)^(1-I2)</f>
         <v>8.3884947159605705E-2</v>
       </c>
-      <c r="H2">
-        <v>0.4</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" t="s">
+      <c r="H2" s="6">
+        <f>B2/C2^0.2/(F2)^0.8</f>
+        <v>5.6211046283144619E-2</v>
+      </c>
+      <c r="I2">
+        <v>0.4</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>1998</v>
       </c>
@@ -593,33 +611,41 @@
         <f t="shared" ref="F3:F27" si="0">D3*E3</f>
         <v>12486918</v>
       </c>
-      <c r="G3" s="8">
-        <f t="shared" ref="G3:G27" si="1">B3/C3^H3/(F3)^(1-H3)</f>
+      <c r="G3" s="6">
+        <f t="shared" ref="G3:G27" si="1">B3/C3^I3/(F3)^(1-I3)</f>
         <v>8.2908364000007784E-2</v>
       </c>
-      <c r="H3">
-        <v>0.4</v>
-      </c>
-      <c r="J3" s="5">
-        <f t="shared" ref="J3:J27" si="2">100*(B3-B2)/B2</f>
-        <v>-1.2703304946157303</v>
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H27" si="2">B3/C3^0.2/(F3)^0.8</f>
+        <v>5.5934173506196748E-2</v>
+      </c>
+      <c r="I3">
+        <v>0.4</v>
       </c>
       <c r="K3" s="5">
-        <f t="shared" ref="K3:K27" si="3">100*(C3-C2)/C2</f>
-        <v>1.9429298349875539</v>
+        <f>(B3-B2)/B2</f>
+        <v>-1.2703304946157304E-2</v>
       </c>
       <c r="L3" s="5">
-        <f t="shared" ref="L3:L26" si="4">100*(F3-F2)/F2</f>
-        <v>-1.4513042181202307</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M21" si="5">J3-H3*K3-(1-H3)*L3</f>
-        <v>-1.1767198977386135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <f>(C3-C2)/C2</f>
+        <v>1.9429298349875539E-2</v>
+      </c>
+      <c r="M3" s="5">
+        <f>(F3-F2)/F2</f>
+        <v>-1.4513042181202307E-2</v>
+      </c>
+      <c r="N3" s="5">
+        <f>(G3-G2)/G2</f>
+        <v>-1.1641935682927736E-2</v>
+      </c>
+      <c r="O3" s="5">
+        <f>(H3-H2)/H2</f>
+        <v>-4.9255937267777619E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
-        <f t="shared" ref="A4:A10" si="6">+A3+1</f>
+        <f t="shared" ref="A4:A10" si="3">+A3+1</f>
         <v>1999</v>
       </c>
       <c r="B4" s="1">
@@ -638,33 +664,41 @@
         <f t="shared" si="0"/>
         <v>12253700</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="6">
         <f t="shared" si="1"/>
         <v>8.3013823746242971E-2</v>
       </c>
-      <c r="H4">
-        <v>0.4</v>
-      </c>
-      <c r="J4" s="5">
-        <f t="shared" si="2"/>
-        <v>-0.3339299576873499</v>
+      <c r="H4" s="6">
+        <f t="shared" si="2"/>
+        <v>5.6405432919113332E-2</v>
+      </c>
+      <c r="I4">
+        <v>0.4</v>
       </c>
       <c r="K4" s="5">
+        <f t="shared" ref="K4:K27" si="4">(B4-B3)/B3</f>
+        <v>-3.3392995768734991E-3</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" ref="L4:L27" si="5">(C4-C3)/C3</f>
+        <v>1.688110120804983E-2</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" ref="M4:M27" si="6">(F4-F3)/F3</f>
+        <v>-1.8676986587082577E-2</v>
+      </c>
+      <c r="N4" s="5">
+        <f t="shared" ref="N4:N27" si="7">(G4-G3)/G3</f>
+        <v>1.2720037056234404E-3</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" ref="O4:O27" si="8">(H4-H3)/H3</f>
+        <v>8.4252503143606005E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
         <f t="shared" si="3"/>
-        <v>1.6881101208049831</v>
-      </c>
-      <c r="L4" s="5">
-        <f t="shared" si="4"/>
-        <v>-1.8676986587082578</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="5"/>
-        <v>0.11144518921561164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5">
-        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="B5" s="1">
@@ -683,33 +717,41 @@
         <f t="shared" si="0"/>
         <v>12359127</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="6">
         <f t="shared" si="1"/>
         <v>8.4328145039596278E-2</v>
       </c>
-      <c r="H5">
-        <v>0.4</v>
-      </c>
-      <c r="J5" s="5">
-        <f t="shared" si="2"/>
-        <v>2.7646475514609197</v>
+      <c r="H5" s="6">
+        <f t="shared" si="2"/>
+        <v>5.7384366822797565E-2</v>
+      </c>
+      <c r="I5">
+        <v>0.4</v>
       </c>
       <c r="K5" s="5">
+        <f t="shared" si="4"/>
+        <v>2.7646475514609196E-2</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="5"/>
+        <v>1.6185968494247725E-2</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="6"/>
+        <v>8.6036870496258265E-3</v>
+      </c>
+      <c r="N5" s="5">
+        <f t="shared" si="7"/>
+        <v>1.5832559374339032E-2</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="8"/>
+        <v>1.7355312299225614E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
         <f t="shared" si="3"/>
-        <v>1.6185968494247724</v>
-      </c>
-      <c r="L5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.86036870496258278</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="5"/>
-        <v>1.600987588713461</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6">
-        <f t="shared" si="6"/>
         <v>2001</v>
       </c>
       <c r="B6" s="1">
@@ -728,33 +770,41 @@
         <f t="shared" si="0"/>
         <v>12201705</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <f t="shared" si="1"/>
         <v>8.4844919291462859E-2</v>
       </c>
-      <c r="H6">
-        <v>0.4</v>
-      </c>
-      <c r="J6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.38610342615508275</v>
+      <c r="H6" s="6">
+        <f t="shared" si="2"/>
+        <v>5.8041773807723539E-2</v>
+      </c>
+      <c r="I6">
+        <v>0.4</v>
       </c>
       <c r="K6" s="5">
+        <f t="shared" si="4"/>
+        <v>3.8610342615508272E-3</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="5"/>
+        <v>1.3681848326830764E-2</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="6"/>
+        <v>-1.2737307416616077E-2</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" si="7"/>
+        <v>6.128134937913427E-3</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="8"/>
+        <v>1.1456203515428523E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
         <f t="shared" si="3"/>
-        <v>1.3681848326830763</v>
-      </c>
-      <c r="L6" s="5">
-        <f t="shared" si="4"/>
-        <v>-1.2737307416616077</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="5"/>
-        <v>0.60306793807881676</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7">
-        <f t="shared" si="6"/>
         <v>2002</v>
       </c>
       <c r="B7" s="1">
@@ -773,33 +823,41 @@
         <f t="shared" si="0"/>
         <v>11990862</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="6">
         <f t="shared" si="1"/>
         <v>8.5489915769859495E-2</v>
       </c>
-      <c r="H7">
-        <v>0.4</v>
-      </c>
-      <c r="J7" s="5">
-        <f t="shared" si="2"/>
-        <v>4.1962499189850969E-2</v>
+      <c r="H7" s="6">
+        <f t="shared" si="2"/>
+        <v>5.8784301198412679E-2</v>
+      </c>
+      <c r="I7">
+        <v>0.4</v>
       </c>
       <c r="K7" s="5">
+        <f t="shared" si="4"/>
+        <v>4.1962499189850968E-4</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="5"/>
+        <v>8.2960359621436514E-3</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="6"/>
+        <v>-1.7279798192137902E-2</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="7"/>
+        <v>7.6020636684315471E-3</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="8"/>
+        <v>1.2792982398314185E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
         <f t="shared" si="3"/>
-        <v>0.82960359621436519</v>
-      </c>
-      <c r="L7" s="5">
-        <f t="shared" si="4"/>
-        <v>-1.7279798192137903</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="5"/>
-        <v>0.74690895223237908</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8">
-        <f t="shared" si="6"/>
         <v>2003</v>
       </c>
       <c r="B8" s="1">
@@ -818,33 +876,41 @@
         <f t="shared" si="0"/>
         <v>11979541</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="6">
         <f t="shared" si="1"/>
         <v>8.6598691418837387E-2</v>
       </c>
-      <c r="H8">
-        <v>0.4</v>
-      </c>
-      <c r="J8" s="5">
-        <f t="shared" si="2"/>
-        <v>1.5351254994238508</v>
+      <c r="H8" s="6">
+        <f t="shared" si="2"/>
+        <v>5.9644835932049535E-2</v>
+      </c>
+      <c r="I8">
+        <v>0.4</v>
       </c>
       <c r="K8" s="5">
+        <f t="shared" si="4"/>
+        <v>1.5351254994238507E-2</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="5"/>
+        <v>7.3143339646299039E-3</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="6"/>
+        <v>-9.4413562594582439E-4</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" si="7"/>
+        <v>1.2969665942387135E-2</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="8"/>
+        <v>1.4638852824537656E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
         <f t="shared" si="3"/>
-        <v>0.73143339646299044</v>
-      </c>
-      <c r="L8" s="5">
-        <f t="shared" si="4"/>
-        <v>-9.4413562594582445E-2</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="5"/>
-        <v>1.299200278395404</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9">
-        <f t="shared" si="6"/>
         <v>2004</v>
       </c>
       <c r="B9" s="1">
@@ -863,33 +929,41 @@
         <f t="shared" si="0"/>
         <v>11838120</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="6">
         <f t="shared" si="1"/>
         <v>8.887781981044858E-2</v>
       </c>
-      <c r="H9">
-        <v>0.4</v>
-      </c>
-      <c r="J9" s="5">
-        <f t="shared" si="2"/>
-        <v>2.1861156944184845</v>
+      <c r="H9" s="6">
+        <f t="shared" si="2"/>
+        <v>6.1445282538756717E-2</v>
+      </c>
+      <c r="I9">
+        <v>0.4</v>
       </c>
       <c r="K9" s="5">
+        <f t="shared" si="4"/>
+        <v>2.1861156944184845E-2</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="5"/>
+        <v>6.956546841757629E-3</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="6"/>
+        <v>-1.1805210233013102E-2</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="7"/>
+        <v>2.6318277496690044E-2</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="8"/>
+        <v>3.0186127240895474E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
         <f t="shared" si="3"/>
-        <v>0.69565468417576282</v>
-      </c>
-      <c r="L9" s="5">
-        <f t="shared" si="4"/>
-        <v>-1.1805210233013101</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="5"/>
-        <v>2.6161664347289655</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10">
-        <f t="shared" si="6"/>
         <v>2005</v>
       </c>
       <c r="B10" s="1">
@@ -908,31 +982,39 @@
         <f t="shared" si="0"/>
         <v>11799280</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="6">
         <f t="shared" si="1"/>
         <v>9.0361241796723057E-2</v>
       </c>
-      <c r="H10">
-        <v>0.4</v>
-      </c>
-      <c r="J10" s="5">
-        <f t="shared" si="2"/>
-        <v>1.8039008722516436</v>
+      <c r="H10" s="6">
+        <f t="shared" si="2"/>
+        <v>6.2615055461450381E-2</v>
+      </c>
+      <c r="I10">
+        <v>0.4</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" si="3"/>
-        <v>0.82770917344505568</v>
+        <f t="shared" si="4"/>
+        <v>1.8039008722516438E-2</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" si="4"/>
-        <v>-0.32809263633076874</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="5"/>
-        <v>1.6696727846720825</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <f t="shared" si="5"/>
+        <v>8.2770917344505562E-3</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" si="6"/>
+        <v>-3.2809263633076873E-3</v>
+      </c>
+      <c r="N10" s="5">
+        <f t="shared" si="7"/>
+        <v>1.6690575775128145E-2</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="8"/>
+        <v>1.9037635996804601E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>2006</v>
       </c>
@@ -952,31 +1034,39 @@
         <f t="shared" si="0"/>
         <v>11907262</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="6">
         <f t="shared" si="1"/>
         <v>9.082539692624518E-2</v>
       </c>
-      <c r="H11">
-        <v>0.4</v>
-      </c>
-      <c r="J11" s="5">
-        <f t="shared" si="2"/>
-        <v>1.3723501276189103</v>
+      <c r="H11" s="6">
+        <f t="shared" si="2"/>
+        <v>6.291770643726724E-2</v>
+      </c>
+      <c r="I11">
+        <v>0.4</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" si="3"/>
-        <v>0.76307183839054515</v>
+        <f t="shared" si="4"/>
+        <v>1.3723501276189102E-2</v>
       </c>
       <c r="L11" s="5">
-        <f t="shared" si="4"/>
-        <v>0.91515753503603614</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="5"/>
-        <v>0.51802687124107061</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <f t="shared" si="5"/>
+        <v>7.6307183839054516E-3</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" si="6"/>
+        <v>9.1515753503603608E-3</v>
+      </c>
+      <c r="N11" s="5">
+        <f t="shared" si="7"/>
+        <v>5.1366616957997093E-3</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" si="8"/>
+        <v>4.8335176514087679E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>2007</v>
       </c>
@@ -996,31 +1086,39 @@
         <f t="shared" si="0"/>
         <v>11963070</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="6">
         <f t="shared" si="1"/>
         <v>9.1732412683724576E-2</v>
       </c>
-      <c r="H12">
-        <v>0.4</v>
-      </c>
-      <c r="J12" s="5">
-        <f t="shared" si="2"/>
-        <v>1.4839694115203237</v>
+      <c r="H12" s="6">
+        <f t="shared" si="2"/>
+        <v>6.3549771642404093E-2</v>
+      </c>
+      <c r="I12">
+        <v>0.4</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" si="3"/>
-        <v>0.49830423992138817</v>
+        <f t="shared" si="4"/>
+        <v>1.4839694115203238E-2</v>
       </c>
       <c r="L12" s="5">
-        <f t="shared" si="4"/>
-        <v>0.46868877160845207</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="5"/>
-        <v>1.0034344525866972</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <f t="shared" si="5"/>
+        <v>4.9830423992138816E-3</v>
+      </c>
+      <c r="M12" s="5">
+        <f t="shared" si="6"/>
+        <v>4.6868877160845205E-3</v>
+      </c>
+      <c r="N12" s="5">
+        <f t="shared" si="7"/>
+        <v>9.9863671194956455E-3</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" si="8"/>
+        <v>1.0045903465458651E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>2008</v>
       </c>
@@ -1040,31 +1138,39 @@
         <f t="shared" si="0"/>
         <v>11832051</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="6">
         <f t="shared" si="1"/>
         <v>9.1165366223565941E-2</v>
       </c>
-      <c r="H13">
-        <v>0.4</v>
-      </c>
-      <c r="J13" s="5">
-        <f t="shared" si="2"/>
-        <v>-1.2242890006326363</v>
+      <c r="H13" s="6">
+        <f t="shared" si="2"/>
+        <v>6.3311691163787653E-2</v>
+      </c>
+      <c r="I13">
+        <v>0.4</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="3"/>
-        <v>0.122495537509146</v>
+        <f t="shared" si="4"/>
+        <v>-1.2242890006326364E-2</v>
       </c>
       <c r="L13" s="5">
-        <f t="shared" si="4"/>
-        <v>-1.095195464040585</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="5"/>
-        <v>-0.61616993721194369</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <f t="shared" si="5"/>
+        <v>1.2249553750914601E-3</v>
+      </c>
+      <c r="M13" s="5">
+        <f t="shared" si="6"/>
+        <v>-1.095195464040585E-2</v>
+      </c>
+      <c r="N13" s="5">
+        <f t="shared" si="7"/>
+        <v>-6.1815278108262603E-3</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" si="8"/>
+        <v>-3.7463624567547408E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>2009</v>
       </c>
@@ -1084,31 +1190,39 @@
         <f t="shared" si="0"/>
         <v>11356964</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="6">
         <f t="shared" si="1"/>
         <v>8.834447915940756E-2</v>
       </c>
-      <c r="H14">
-        <v>0.4</v>
-      </c>
-      <c r="J14" s="5">
-        <f t="shared" si="2"/>
-        <v>-5.6932363588552857</v>
+      <c r="H14" s="6">
+        <f t="shared" si="2"/>
+        <v>6.1777310023007417E-2</v>
+      </c>
+      <c r="I14">
+        <v>0.4</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" si="3"/>
-        <v>-0.64723810040035734</v>
+        <f t="shared" si="4"/>
+        <v>-5.6932363588552859E-2</v>
       </c>
       <c r="L14" s="5">
-        <f t="shared" si="4"/>
-        <v>-4.0152548362071796</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="5"/>
-        <v>-3.0251882169708346</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <f t="shared" si="5"/>
+        <v>-6.4723810040035737E-3</v>
+      </c>
+      <c r="M14" s="5">
+        <f t="shared" si="6"/>
+        <v>-4.0152548362071799E-2</v>
+      </c>
+      <c r="N14" s="5">
+        <f t="shared" si="7"/>
+        <v>-3.094252983354101E-2</v>
+      </c>
+      <c r="O14" s="5">
+        <f t="shared" si="8"/>
+        <v>-2.4235352311325637E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>2010</v>
       </c>
@@ -1128,31 +1242,39 @@
         <f t="shared" si="0"/>
         <v>11482858</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="6">
         <f t="shared" si="1"/>
         <v>9.1596491184229314E-2</v>
       </c>
-      <c r="H15">
-        <v>0.4</v>
-      </c>
-      <c r="J15" s="5">
-        <f t="shared" si="2"/>
-        <v>4.097917919346127</v>
+      <c r="H15" s="6">
+        <f t="shared" si="2"/>
+        <v>6.3827208991238421E-2</v>
+      </c>
+      <c r="I15">
+        <v>0.4</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="3"/>
-        <v>-0.64838442091125104</v>
+        <f t="shared" si="4"/>
+        <v>4.0979179193461265E-2</v>
       </c>
       <c r="L15" s="5">
-        <f t="shared" si="4"/>
-        <v>1.1085180863477246</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="5"/>
-        <v>3.6921608359019924</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <f t="shared" si="5"/>
+        <v>-6.4838442091125102E-3</v>
+      </c>
+      <c r="M15" s="5">
+        <f t="shared" si="6"/>
+        <v>1.1085180863477246E-2</v>
+      </c>
+      <c r="N15" s="5">
+        <f t="shared" si="7"/>
+        <v>3.6810585740778085E-2</v>
+      </c>
+      <c r="O15" s="5">
+        <f t="shared" si="8"/>
+        <v>3.3182069071436907E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>2011</v>
       </c>
@@ -1172,31 +1294,39 @@
         <f t="shared" si="0"/>
         <v>11399616</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="6">
         <f t="shared" si="1"/>
         <v>9.2372333143413268E-2</v>
       </c>
-      <c r="H16">
-        <v>0.4</v>
-      </c>
-      <c r="J16" s="5">
-        <f t="shared" si="2"/>
-        <v>2.3809523809519249E-2</v>
+      <c r="H16" s="6">
+        <f t="shared" si="2"/>
+        <v>6.4338209971292137E-2</v>
+      </c>
+      <c r="I16">
+        <v>0.4</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="3"/>
-        <v>-0.95320060798587014</v>
+        <f t="shared" si="4"/>
+        <v>2.380952380951925E-4</v>
       </c>
       <c r="L16" s="5">
-        <f t="shared" si="4"/>
-        <v>-0.72492405636297164</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="5"/>
-        <v>0.84004420082165021</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <f t="shared" si="5"/>
+        <v>-9.5320060798587004E-3</v>
+      </c>
+      <c r="M16" s="5">
+        <f t="shared" si="6"/>
+        <v>-7.2492405636297164E-3</v>
+      </c>
+      <c r="N16" s="5">
+        <f t="shared" si="7"/>
+        <v>8.4702148428752802E-3</v>
+      </c>
+      <c r="O16" s="5">
+        <f t="shared" si="8"/>
+        <v>8.0060054031794118E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>2012</v>
       </c>
@@ -1216,31 +1346,39 @@
         <f t="shared" si="0"/>
         <v>11415790</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="6">
         <f t="shared" si="1"/>
         <v>9.362798128019148E-2</v>
       </c>
-      <c r="H17">
-        <v>0.4</v>
-      </c>
-      <c r="J17" s="5">
-        <f t="shared" si="2"/>
-        <v>1.3747509991355533</v>
+      <c r="H17" s="6">
+        <f t="shared" si="2"/>
+        <v>6.5171523385411725E-2</v>
+      </c>
+      <c r="I17">
+        <v>0.4</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" si="3"/>
-        <v>-0.17449593674970232</v>
+        <f t="shared" si="4"/>
+        <v>1.3747509991355534E-2</v>
       </c>
       <c r="L17" s="5">
-        <f t="shared" si="4"/>
-        <v>0.14188197216467643</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="5"/>
-        <v>1.3594201905366283</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <f t="shared" si="5"/>
+        <v>-1.744959367497023E-3</v>
+      </c>
+      <c r="M17" s="5">
+        <f t="shared" si="6"/>
+        <v>1.4188197216467642E-3</v>
+      </c>
+      <c r="N17" s="5">
+        <f t="shared" si="7"/>
+        <v>1.3593335732126059E-2</v>
+      </c>
+      <c r="O17" s="5">
+        <f t="shared" si="8"/>
+        <v>1.2952076448682898E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>2013</v>
       </c>
@@ -1260,31 +1398,39 @@
         <f t="shared" si="0"/>
         <v>11446134</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="6">
         <f t="shared" si="1"/>
         <v>9.5320588889901386E-2</v>
       </c>
-      <c r="H18">
-        <v>0.4</v>
-      </c>
-      <c r="J18" s="5">
-        <f t="shared" si="2"/>
-        <v>2.0051001768030305</v>
+      <c r="H18" s="6">
+        <f t="shared" si="2"/>
+        <v>6.6325864181831562E-2</v>
+      </c>
+      <c r="I18">
+        <v>0.4</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="3"/>
-        <v>8.5875319264907851E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.0051001768030305E-2</v>
       </c>
       <c r="L18" s="5">
-        <f t="shared" si="4"/>
-        <v>0.26580727220805567</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="5"/>
-        <v>1.8112656857722338</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <f t="shared" si="5"/>
+        <v>8.5875319264907852E-4</v>
+      </c>
+      <c r="M18" s="5">
+        <f t="shared" si="6"/>
+        <v>2.6580727220805568E-3</v>
+      </c>
+      <c r="N18" s="5">
+        <f t="shared" si="7"/>
+        <v>1.8078010297419549E-2</v>
+      </c>
+      <c r="O18" s="5">
+        <f t="shared" si="8"/>
+        <v>1.7712349450438491E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>2014</v>
       </c>
@@ -1304,31 +1450,39 @@
         <f t="shared" si="0"/>
         <v>11454625</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="6">
         <f t="shared" si="1"/>
         <v>9.548450546653911E-2</v>
       </c>
-      <c r="H19">
-        <v>0.4</v>
-      </c>
-      <c r="J19" s="5">
-        <f t="shared" si="2"/>
-        <v>0.29620551403782991</v>
+      <c r="H19" s="6">
+        <f t="shared" si="2"/>
+        <v>6.6456465089264088E-2</v>
+      </c>
+      <c r="I19">
+        <v>0.4</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="3"/>
-        <v>0.19884511928806439</v>
+        <f t="shared" si="4"/>
+        <v>2.9620551403782992E-3</v>
       </c>
       <c r="L19" s="5">
-        <f t="shared" si="4"/>
-        <v>7.4182252278367528E-2</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="5"/>
-        <v>0.17215811495558364</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <f t="shared" si="5"/>
+        <v>1.9884511928806442E-3</v>
+      </c>
+      <c r="M19" s="5">
+        <f t="shared" si="6"/>
+        <v>7.4182252278367524E-4</v>
+      </c>
+      <c r="N19" s="5">
+        <f t="shared" si="7"/>
+        <v>1.7196345359033935E-3</v>
+      </c>
+      <c r="O19" s="5">
+        <f t="shared" si="8"/>
+        <v>1.9690796198973855E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>2015</v>
       </c>
@@ -1348,31 +1502,39 @@
         <f t="shared" si="0"/>
         <v>11427912</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="6">
         <f t="shared" si="1"/>
         <v>9.6991356984754848E-2</v>
       </c>
-      <c r="H20">
-        <v>0.4</v>
-      </c>
-      <c r="J20" s="5">
-        <f t="shared" si="2"/>
-        <v>1.560626696825729</v>
+      <c r="H20" s="6">
+        <f t="shared" si="2"/>
+        <v>6.7578256556428726E-2</v>
+      </c>
+      <c r="I20">
+        <v>0.4</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" si="3"/>
-        <v>0.30765602332097197</v>
+        <f t="shared" si="4"/>
+        <v>1.5606266968257291E-2</v>
       </c>
       <c r="L20" s="5">
-        <f t="shared" si="4"/>
-        <v>-0.2332071106649061</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="5"/>
-        <v>1.577488553896284</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <f t="shared" si="5"/>
+        <v>3.0765602332097196E-3</v>
+      </c>
+      <c r="M20" s="5">
+        <f t="shared" si="6"/>
+        <v>-2.3320711066490609E-3</v>
+      </c>
+      <c r="N20" s="5">
+        <f t="shared" si="7"/>
+        <v>1.5781110357677746E-2</v>
+      </c>
+      <c r="O20" s="5">
+        <f t="shared" si="8"/>
+        <v>1.6880095347500818E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>2016</v>
       </c>
@@ -1392,31 +1554,39 @@
         <f t="shared" si="0"/>
         <v>11521508</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="6">
         <f t="shared" si="1"/>
         <v>9.7132545142097487E-2</v>
       </c>
-      <c r="H21">
-        <v>0.4</v>
-      </c>
-      <c r="J21" s="5">
-        <f t="shared" si="2"/>
-        <v>0.75382674585175435</v>
+      <c r="H21" s="6">
+        <f t="shared" si="2"/>
+        <v>6.7605558631849708E-2</v>
+      </c>
+      <c r="I21">
+        <v>0.4</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="3"/>
-        <v>0.29075140035825375</v>
+        <f t="shared" si="4"/>
+        <v>7.5382674585175438E-3</v>
       </c>
       <c r="L21" s="5">
-        <f t="shared" si="4"/>
-        <v>0.81901225700722935</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="5"/>
-        <v>0.14611883150411531</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <f t="shared" si="5"/>
+        <v>2.9075140035825374E-3</v>
+      </c>
+      <c r="M21" s="5">
+        <f t="shared" si="6"/>
+        <v>8.1901225700722925E-3</v>
+      </c>
+      <c r="N21" s="5">
+        <f t="shared" si="7"/>
+        <v>1.4556777194573262E-3</v>
+      </c>
+      <c r="O21" s="5">
+        <f t="shared" si="8"/>
+        <v>4.0400680355203084E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>2017</v>
       </c>
@@ -1436,31 +1606,39 @@
         <f t="shared" si="0"/>
         <v>11554549</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="6">
         <f t="shared" si="1"/>
         <v>9.8426814545967953E-2</v>
       </c>
-      <c r="H22">
-        <v>0.4</v>
-      </c>
-      <c r="J22" s="5">
-        <f t="shared" si="2"/>
-        <v>1.6753317516924633</v>
+      <c r="H22" s="6">
+        <f t="shared" si="2"/>
+        <v>6.8523998835666816E-2</v>
+      </c>
+      <c r="I22">
+        <v>0.4</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="3"/>
-        <v>0.41574911198986647</v>
+        <f t="shared" si="4"/>
+        <v>1.6753317516924632E-2</v>
       </c>
       <c r="L22" s="5">
-        <f t="shared" si="4"/>
-        <v>0.28677669624497071</v>
-      </c>
-      <c r="M22">
-        <f>J22-H22*K22-(1-H22)*L22</f>
-        <v>1.3369660891495343</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <f t="shared" si="5"/>
+        <v>4.1574911198986641E-3</v>
+      </c>
+      <c r="M22" s="5">
+        <f t="shared" si="6"/>
+        <v>2.8677669624497071E-3</v>
+      </c>
+      <c r="N22" s="5">
+        <f t="shared" si="7"/>
+        <v>1.3324775974695694E-2</v>
+      </c>
+      <c r="O22" s="5">
+        <f t="shared" si="8"/>
+        <v>1.3585276453649797E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>2018</v>
       </c>
@@ -1480,31 +1658,39 @@
         <f t="shared" si="0"/>
         <v>11536560</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="6">
         <f t="shared" si="1"/>
         <v>9.8991633684660449E-2</v>
       </c>
-      <c r="H23">
-        <v>0.4</v>
-      </c>
-      <c r="J23" s="5">
-        <f t="shared" si="2"/>
-        <v>0.64339102354776678</v>
+      <c r="H23" s="6">
+        <f t="shared" si="2"/>
+        <v>6.8994773812854474E-2</v>
+      </c>
+      <c r="I23">
+        <v>0.4</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" si="3"/>
-        <v>0.40734958604100036</v>
+        <f t="shared" si="4"/>
+        <v>6.4339102354776679E-3</v>
       </c>
       <c r="L23" s="5">
-        <f t="shared" si="4"/>
-        <v>-0.15568759974967436</v>
-      </c>
-      <c r="M23">
-        <f t="shared" ref="M23:M27" si="7">J23-H23*K23-(1-H23)*L23</f>
-        <v>0.57386374898117121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <f t="shared" si="5"/>
+        <v>4.0734958604100036E-3</v>
+      </c>
+      <c r="M23" s="5">
+        <f t="shared" si="6"/>
+        <v>-1.5568759974967435E-3</v>
+      </c>
+      <c r="N23" s="5">
+        <f t="shared" si="7"/>
+        <v>5.7384681328756246E-3</v>
+      </c>
+      <c r="O23" s="5">
+        <f t="shared" si="8"/>
+        <v>6.8702204364439173E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>2019</v>
       </c>
@@ -1524,31 +1710,39 @@
         <f t="shared" si="0"/>
         <v>11411004</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="6">
         <f t="shared" si="1"/>
         <v>9.9084029783973598E-2</v>
       </c>
-      <c r="H24">
-        <v>0.4</v>
-      </c>
-      <c r="J24" s="5">
-        <f t="shared" si="2"/>
-        <v>-0.4021692009160569</v>
+      <c r="H24" s="6">
+        <f t="shared" si="2"/>
+        <v>6.9265975616269376E-2</v>
+      </c>
+      <c r="I24">
+        <v>0.4</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" si="3"/>
-        <v>0.40156506762318567</v>
+        <f t="shared" si="4"/>
+        <v>-4.0216920091605685E-3</v>
       </c>
       <c r="L24" s="5">
-        <f t="shared" si="4"/>
-        <v>-1.0883313570076349</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="7"/>
-        <v>9.0203586239249733E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <f t="shared" si="5"/>
+        <v>4.0156506762318569E-3</v>
+      </c>
+      <c r="M24" s="5">
+        <f t="shared" si="6"/>
+        <v>-1.0883313570076349E-2</v>
+      </c>
+      <c r="N24" s="5">
+        <f t="shared" si="7"/>
+        <v>9.3337281014554095E-4</v>
+      </c>
+      <c r="O24" s="5">
+        <f t="shared" si="8"/>
+        <v>3.9307586419592682E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>2020</v>
       </c>
@@ -1568,31 +1762,39 @@
         <f t="shared" si="0"/>
         <v>11067210</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="6">
         <f t="shared" si="1"/>
         <v>9.6569773634516132E-2</v>
       </c>
-      <c r="H25">
-        <v>0.4</v>
-      </c>
-      <c r="J25" s="5">
-        <f t="shared" si="2"/>
-        <v>-4.2786036876551341</v>
+      <c r="H25" s="6">
+        <f t="shared" si="2"/>
+        <v>6.7933829635518653E-2</v>
+      </c>
+      <c r="I25">
+        <v>0.4</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="3"/>
-        <v>8.2292002069881715E-2</v>
+        <f t="shared" si="4"/>
+        <v>-4.2786036876551338E-2</v>
       </c>
       <c r="L25" s="5">
-        <f t="shared" si="4"/>
-        <v>-3.0128286695894593</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="7"/>
-        <v>-2.5038232867294115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <f t="shared" si="5"/>
+        <v>8.2292002069881711E-4</v>
+      </c>
+      <c r="M25" s="5">
+        <f t="shared" si="6"/>
+        <v>-3.0128286695894596E-2</v>
+      </c>
+      <c r="N25" s="5">
+        <f t="shared" si="7"/>
+        <v>-2.5374988834619808E-2</v>
+      </c>
+      <c r="O25" s="5">
+        <f t="shared" si="8"/>
+        <v>-1.9232328266489119E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>2021</v>
       </c>
@@ -1612,31 +1814,39 @@
         <f t="shared" si="0"/>
         <v>11094728</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="6">
         <f t="shared" si="1"/>
         <v>9.847492758042474E-2</v>
       </c>
-      <c r="H26">
-        <v>0.4</v>
-      </c>
-      <c r="J26" s="5">
-        <f t="shared" si="2"/>
-        <v>2.1582939209437906</v>
+      <c r="H26" s="6">
+        <f t="shared" si="2"/>
+        <v>6.9250974231519949E-2</v>
+      </c>
+      <c r="I26">
+        <v>0.4</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="3"/>
-        <v>8.1815235613345291E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.1582939209437907E-2</v>
       </c>
       <c r="L26" s="5">
-        <f t="shared" si="4"/>
-        <v>0.24864441896376774</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="7"/>
-        <v>1.9763811753201919</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <f t="shared" si="5"/>
+        <v>8.1815235613345296E-4</v>
+      </c>
+      <c r="M26" s="5">
+        <f t="shared" si="6"/>
+        <v>2.4864441896376775E-3</v>
+      </c>
+      <c r="N26" s="5">
+        <f t="shared" si="7"/>
+        <v>1.9728263557072943E-2</v>
+      </c>
+      <c r="O26" s="5">
+        <f t="shared" si="8"/>
+        <v>1.9388640432433941E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>2022</v>
       </c>
@@ -1656,62 +1866,74 @@
         <f t="shared" si="0"/>
         <v>11086693</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="6">
         <f t="shared" si="1"/>
         <v>9.9544821394324509E-2</v>
       </c>
-      <c r="H27">
-        <v>0.4</v>
-      </c>
-      <c r="J27" s="5">
-        <f t="shared" si="2"/>
-        <v>1.044937745889075</v>
+      <c r="H27" s="6">
+        <f t="shared" si="2"/>
+        <v>7.0014338110441623E-2</v>
+      </c>
+      <c r="I27">
+        <v>0.4</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" si="3"/>
-        <v>5.9533386123843662E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.0449377458890751E-2</v>
       </c>
       <c r="L27" s="5">
-        <f>100*(F27-F26)/F26</f>
-        <v>-7.242178447276941E-2</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="7"/>
-        <v>1.0860094811277827</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <f t="shared" si="5"/>
+        <v>5.9533386123843661E-5</v>
+      </c>
+      <c r="M27" s="5">
+        <f t="shared" si="6"/>
+        <v>-7.2421784472769413E-4</v>
+      </c>
+      <c r="N27" s="5">
+        <f t="shared" si="7"/>
+        <v>1.0864631639622016E-2</v>
+      </c>
+      <c r="O27" s="5">
+        <f t="shared" si="8"/>
+        <v>1.1023150033522928E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="7">
-        <f>((B27/B2)^(1/25) -1)</f>
+        <v>15</v>
+      </c>
+      <c r="B29" s="5">
+        <f t="shared" ref="B29:H29" si="9">((B27/B2)^(1/25) -1)</f>
         <v>5.3927420833679296E-3</v>
       </c>
-      <c r="C29" s="7">
-        <f>((C27/C2)^(1/25) -1)</f>
+      <c r="C29" s="5">
+        <f t="shared" si="9"/>
         <v>4.3522159721467446E-3</v>
       </c>
-      <c r="D29" s="7">
-        <f>((D27/D2)^(1/25) -1)</f>
+      <c r="D29" s="5">
+        <f t="shared" si="9"/>
         <v>6.1365236064103712E-4</v>
       </c>
-      <c r="E29" s="7">
-        <f>((E27/E2)^(1/25) -1)</f>
+      <c r="E29" s="5">
+        <f t="shared" si="9"/>
         <v>-5.9379787552382712E-3</v>
       </c>
-      <c r="F29" s="7">
-        <f>((F27/F2)^(1/25) -1)</f>
+      <c r="F29" s="5">
+        <f t="shared" si="9"/>
         <v>-5.3279702492780023E-3</v>
       </c>
-      <c r="G29" s="7">
-        <f>((G27/G2)^(1/25) -1)</f>
+      <c r="G29" s="5">
+        <f t="shared" si="9"/>
         <v>6.869963703375781E-3</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="9"/>
+        <v>8.8221582868981407E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="K1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
